--- a/public/cohort/fileExcel/xlsxUIT/KUA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KUA PTA en onderwijsprogramma.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -254,6 +254,21 @@
     <t>H</t>
   </si>
   <si>
+    <t>Cultuur van het Moderne - I (1e helft van de 20e eeuw)</t>
+  </si>
+  <si>
+    <t>Cultuur van het Moderne - II (1e helft van de 20e eeuw)</t>
+  </si>
+  <si>
+    <t>Cultuur van het Moderne - III (1e helft van de 20e eeuw)</t>
+  </si>
+  <si>
+    <t>Massacultuur - I (2e helft 20e eeuw- heden)</t>
+  </si>
+  <si>
+    <t>Massacultuur - II (2e helft 20e eeuw- heden)</t>
+  </si>
+  <si>
     <t>Het gebruik van een woordenboek is niet toegestaan</t>
   </si>
   <si>
@@ -264,7 +279,34 @@
     <t xml:space="preserve">Herhalingsopdracht Burgerlijke Cultuur van Nederland (17e eeuw) </t>
   </si>
   <si>
+    <t>Theoretische toets-handelingsdeel Massacultuur (2e helft v/d 20e eeuw)</t>
+  </si>
+  <si>
+    <t>Proefexamen over drie of vier eindexamenonderwerpen: - Burgelijke Cultuur van Nederland (17e eeuw) - Cultuur van het Moderne (1e helft v/d 20e eeuw) - Cultuur van de Massa (2e helft v/d 20e eeuw tot heden)</t>
+  </si>
+  <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Grieken &amp; Romeinen I</t>
+  </si>
+  <si>
+    <t>Grieken &amp; Romeinen II</t>
+  </si>
+  <si>
+    <t>Massacultuur (2e helft 20e eeuw- heden)</t>
+  </si>
+  <si>
+    <t>Hofcultuur - I (16e/ 17e eeuw)</t>
+  </si>
+  <si>
+    <t>Hofcultuur - II (16e/ 17e eeuw)</t>
+  </si>
+  <si>
+    <t>Cultuur van Romantiek en Realisme - I (19e eeuw)</t>
+  </si>
+  <si>
+    <t>Cultuur van Romantiek en Realisme - II (19e eeuw)</t>
   </si>
   <si>
     <t>Herhalingsopdracht Cultuur van het Moderne (1e helft v/d 20e eeuw)</t>
@@ -273,7 +315,13 @@
     <t>Herhalingsopdracht Cultuur van de Massa (2e helft v/d 20e eeuw)</t>
   </si>
   <si>
+    <t>Theoretische toets-handelingsdeel Cultuur van Romantiek &amp; Realisme (19e eeuw)</t>
+  </si>
+  <si>
     <t>Herhalingsopdracht Hofcultuur (16e t/m 17e eeuw)</t>
+  </si>
+  <si>
+    <t>Proefexamen over drie of vier eindexamenonderwerpen: - Hofcultuur (16e t/m 17e eeuw) - Cultuur van Romantiek en Realisme (97e eeuw) - Cultuur van het Moderne (1e helft v/d 20e eeuw) - Cultuur van de Massa (2e helft v/d 20e eeuw tot heden)</t>
   </si>
 </sst>
 </file>
@@ -1290,26 +1338,32 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1322,22 +1376,28 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1350,22 +1410,28 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1379,22 +1445,28 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1404,26 +1476,32 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633391204</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1497,7 +1575,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -2156,7 +2234,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2270,7 +2348,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633391204</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2421,88 +2499,112 @@
     <row r="18" spans="1:17" customHeight="1" ht="72">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
       <c r="M18" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
       <c r="M19" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
+      <c r="G21" s="27">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2</v>
+      </c>
       <c r="J21" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
       <c r="M21" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P21" s="32"/>
     </row>
@@ -2568,7 +2670,7 @@
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
       <c r="G26" s="34" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -3022,7 +3124,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3136,7 +3238,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633391204</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3496,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3511,9 +3613,7 @@
       <c r="O30" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P30" s="32">
-        <v>0</v>
-      </c>
+      <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
       <c r="D31" s="2"/>
@@ -3522,7 +3622,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3537,25 +3637,25 @@
       <c r="O31" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="32">
-        <v>0</v>
-      </c>
+      <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
+      <c r="L32" s="27">
+        <v>100</v>
+      </c>
       <c r="M32" s="27" t="s">
         <v>8</v>
       </c>
@@ -3563,51 +3663,55 @@
       <c r="O32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="32">
-        <v>0</v>
-      </c>
+      <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
+      <c r="G33" s="27">
+        <v>3</v>
+      </c>
+      <c r="H33" s="28" t="s">
+        <v>96</v>
+      </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K33" s="30"/>
       <c r="L33" s="27"/>
       <c r="M33" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N33" s="31"/>
       <c r="O33" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
+      <c r="G34" s="27">
+        <v>3</v>
+      </c>
+      <c r="H34" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="I34" s="27"/>
       <c r="J34" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
+      <c r="L34" s="27">
+        <v>180</v>
+      </c>
       <c r="M34" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N34" s="31"/>
       <c r="O34" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P34" s="32"/>
     </row>
@@ -4004,7 +4108,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633391204</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4959,7 +5063,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633391204</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5775,7 +5879,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633391204</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6591,7 +6695,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633391204</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7307,22 +7411,28 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -7335,22 +7445,28 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -7363,22 +7479,28 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -7392,22 +7514,28 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -7417,26 +7545,32 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633391204</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -7510,7 +7644,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -8283,7 +8417,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633391204</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8438,7 +8572,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
@@ -8453,9 +8587,7 @@
       <c r="O18" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="32">
-        <v>0</v>
-      </c>
+      <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
       <c r="D19" s="2"/>
@@ -8464,7 +8596,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
@@ -8479,51 +8611,57 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32">
-        <v>0</v>
-      </c>
+      <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
+      <c r="L21" s="27">
+        <v>180</v>
+      </c>
       <c r="M21" s="27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P21" s="32"/>
     </row>
@@ -9147,7 +9285,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44334.633391204</v>
+        <v>44335.808449074</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/KUA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KUA PTA en onderwijsprogramma.xlsx
@@ -1340,7 +1340,9 @@
       <c r="B6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>524</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -1374,7 +1376,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>525</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -1408,7 +1412,9 @@
       <c r="B8" s="2">
         <v>160</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>526</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -1443,7 +1449,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>527</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -1476,9 +1484,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445729167</v>
+      </c>
+      <c r="D10" s="2">
+        <v>528</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -1554,7 +1564,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>397</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A4 (schooljaar 2020 - 2021)</v>
@@ -1768,7 +1780,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>398</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A5 (schooljaar 2021 - 2022)</v>
@@ -1973,7 +1987,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>399</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A6 (schooljaar 2022 - 2023)</v>
@@ -2348,7 +2364,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2420,7 +2436,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>400</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A4 (schooljaar 2019 - 2020)</v>
@@ -2497,7 +2515,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>529</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -2525,7 +2545,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>530</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -2553,7 +2575,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>531</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>3</v>
@@ -2581,7 +2605,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>532</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>4</v>
@@ -2656,7 +2682,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>401</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A5 (schooljaar 2020 - 2021)</v>
@@ -2863,7 +2891,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>402</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A6 (schooljaar 2021 - 2022)</v>
@@ -3238,7 +3268,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3310,7 +3340,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>403</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A4 (schooljaar 2018 - 2019)</v>
@@ -3522,7 +3554,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>404</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A5 (schooljaar 2019 - 2020)</v>
@@ -3592,7 +3626,9 @@
       </c>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>533</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="G30" s="27">
         <v>1</v>
@@ -3616,7 +3652,9 @@
       <c r="P30" s="32"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>534</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="G31" s="27">
         <v>2</v>
@@ -3640,7 +3678,9 @@
       <c r="P31" s="32"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>535</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="G32" s="27">
         <v>2</v>
@@ -3666,7 +3706,9 @@
       <c r="P32" s="32"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>536</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="G33" s="27">
         <v>3</v>
@@ -3690,7 +3732,9 @@
       <c r="P33" s="32"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>537</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="G34" s="27">
         <v>3</v>
@@ -3741,7 +3785,9 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2"/>
+      <c r="D37" s="2">
+        <v>405</v>
+      </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A6 (schooljaar 2020 - 2021)</v>
@@ -3754,9 +3800,7 @@
       <c r="M37" s="33"/>
     </row>
     <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34">
-        <v>0</v>
-      </c>
+      <c r="G38" s="34"/>
       <c r="H38" s="34"/>
       <c r="I38" s="34"/>
       <c r="J38" s="34"/>
@@ -4108,7 +4152,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5063,7 +5107,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5879,7 +5923,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6695,7 +6739,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7409,7 +7453,9 @@
       <c r="B6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>515</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="G6" s="27">
         <v>1</v>
@@ -7443,7 +7489,9 @@
       <c r="B7" s="2">
         <v>2020</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>516</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="G7" s="27">
         <v>1</v>
@@ -7477,7 +7525,9 @@
       <c r="B8" s="2">
         <v>158</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>517</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="G8" s="27">
         <v>2</v>
@@ -7512,7 +7562,9 @@
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2022</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>518</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="G9" s="27">
         <v>3</v>
@@ -7545,9 +7597,11 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44336.445729167</v>
+      </c>
+      <c r="D10" s="2">
+        <v>519</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" s="27">
         <v>4</v>
@@ -7623,7 +7677,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>393</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H4 (schooljaar 2020 - 2021)</v>
@@ -7837,7 +7893,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>394</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H5 (schooljaar 2021 - 2022)</v>
@@ -8417,7 +8475,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8489,7 +8547,9 @@
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>395</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H4 (schooljaar 2019 - 2020)</v>
@@ -8566,7 +8626,9 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>520</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="G18" s="27">
         <v>1</v>
@@ -8590,7 +8652,9 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>521</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
         <v>2</v>
@@ -8614,7 +8678,9 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>522</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="G20" s="27">
         <v>2</v>
@@ -8640,7 +8706,9 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>523</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="G21" s="27">
         <v>3</v>
@@ -8713,7 +8781,9 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>396</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
         <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H5 (schooljaar 2020 - 2021)</v>
@@ -8726,9 +8796,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34">
-        <v>0</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -9285,7 +9353,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44335.808449074</v>
+        <v>44336.445729167</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>

--- a/public/cohort/fileExcel/xlsxUIT/KUA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KUA PTA en onderwijsprogramma.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection lockRevision="false" lockStructure="true" lockWindows="false"/>
   <bookViews>
-    <workbookView activeTab="11" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="instellingen" sheetId="1" r:id="rId4"/>
@@ -13,13 +13,14 @@
     <sheet name="wensen" sheetId="3" r:id="rId6"/>
     <sheet name="M 2021" sheetId="4" r:id="rId7"/>
     <sheet name="M 2020" sheetId="5" r:id="rId8"/>
-    <sheet name="H 2021" sheetId="6" r:id="rId9"/>
-    <sheet name="H 2020" sheetId="7" r:id="rId10"/>
-    <sheet name="H 2019" sheetId="8" r:id="rId11"/>
-    <sheet name="A 2021" sheetId="9" r:id="rId12"/>
-    <sheet name="A 2020" sheetId="10" r:id="rId13"/>
-    <sheet name="A 2019" sheetId="11" r:id="rId14"/>
-    <sheet name="A 2018" sheetId="12" r:id="rId15"/>
+    <sheet name="M 2019" sheetId="6" r:id="rId9"/>
+    <sheet name="H 2021" sheetId="7" r:id="rId10"/>
+    <sheet name="H 2020" sheetId="8" r:id="rId11"/>
+    <sheet name="H 2019" sheetId="9" r:id="rId12"/>
+    <sheet name="A 2021" sheetId="10" r:id="rId13"/>
+    <sheet name="A 2020" sheetId="11" r:id="rId14"/>
+    <sheet name="A 2019" sheetId="12" r:id="rId15"/>
+    <sheet name="A 2018" sheetId="13" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -251,6 +252,9 @@
     <t>KUA</t>
   </si>
   <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
@@ -280,6 +284,9 @@
   </si>
   <si>
     <t>Theoretische toets-handelingsdeel Massacultuur (2e helft v/d 20e eeuw)</t>
+  </si>
+  <si>
+    <t>Geen woordenboek toegestaan</t>
   </si>
   <si>
     <t>Proefexamen over drie of vier eindexamenonderwerpen: - Burgelijke Cultuur van Nederland (17e eeuw) - Cultuur van het Moderne (1e helft v/d 20e eeuw) - Cultuur van de Massa (2e helft v/d 20e eeuw tot heden)</t>
@@ -1250,12 +1257,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
+      <c r="B2" s="2">
+        <v>0</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
+        <v>verouderd PTA</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -1277,25 +1284,21 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>KUA leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v> leerlaag 4 (schooljaar  - 1)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2">
-        <v>25</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -1337,35 +1340,25 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2">
-        <v>524</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
+      <c r="L6" s="27"/>
       <c r="M6" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
     </row>
@@ -1373,35 +1366,25 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>525</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1</v>
-      </c>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
       <c r="J7" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
     </row>
@@ -1409,35 +1392,25 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2">
-        <v>160</v>
-      </c>
-      <c r="D8" s="2">
-        <v>526</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
+      <c r="L8" s="27"/>
       <c r="M8" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
     </row>
@@ -1447,34 +1420,26 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2023</v>
-      </c>
-      <c r="D9" s="2">
-        <v>527</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
+      <c r="L9" s="27"/>
       <c r="M9" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
     </row>
@@ -1484,34 +1449,26 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2">
-        <v>528</v>
-      </c>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
+      <c r="L10" s="27"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
     </row>
@@ -1559,17 +1516,15 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>0</v>
+        <v>-2020</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
-        <v>397</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A4 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -1584,11 +1539,9 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>80</v>
-      </c>
+        <v>2024</v>
+      </c>
+      <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -1603,7 +1556,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>KUA leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v> leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -1780,12 +1733,10 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2">
-        <v>398</v>
-      </c>
+      <c r="D25" s="2"/>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A5 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -1810,7 +1761,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>KUA leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v> leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -1987,12 +1938,10 @@
       <c r="C37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>399</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A6 (schooljaar 2022 - 2023)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -2066,44 +2015,6 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
@@ -2167,7 +2078,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+        <v>Dit is het programma van de huidige A4 (cohort 2020 - 2023)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -2198,7 +2109,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>KUA leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>KUA leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -2250,22 +2161,30 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="D6" s="2">
+        <v>524</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
@@ -2278,22 +2197,30 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>525</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
@@ -2306,22 +2233,30 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>161</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>160</v>
+      </c>
+      <c r="D8" s="2">
+        <v>526</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -2335,22 +2270,30 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2023</v>
+      </c>
+      <c r="D9" s="2">
+        <v>527</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
@@ -2364,22 +2307,30 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2">
+        <v>528</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
@@ -2431,17 +2382,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -2456,9 +2407,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -2473,7 +2426,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>KUA leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>KUA leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -2515,122 +2468,90 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>529</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="27">
-        <v>2</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
-      <c r="L18" s="27">
-        <v>100</v>
-      </c>
+      <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>530</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="27">
-        <v>2</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
-      <c r="L19" s="27">
-        <v>100</v>
-      </c>
+      <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>531</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>3</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="I20" s="27">
-        <v>2</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>532</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>4</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="27">
-        <v>2</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>100</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
@@ -2683,11 +2604,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -2697,9 +2618,7 @@
       <c r="M25" s="33"/>
     </row>
     <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34" t="s">
-        <v>80</v>
-      </c>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
       <c r="J26" s="34"/>
@@ -2714,7 +2633,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>KUA leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>KUA leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -2892,11 +2811,11 @@
         <v>28</v>
       </c>
       <c r="D37" s="2">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A6 (schooljaar 2021 - 2022)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A6 (schooljaar 2022 - 2023)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -3029,6 +2948,910 @@
   </sheetPr>
   <dimension ref="A1:Q38"/>
   <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>Dit is het programma van de huidige A5 (cohort 2019 - 2022)</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>KUA leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>161</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>400</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>KUA leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2">
+        <v>529</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="27">
+        <v>2</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27">
+        <v>100</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2">
+        <v>530</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="27">
+        <v>2</v>
+      </c>
+      <c r="J19" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27">
+        <v>100</v>
+      </c>
+      <c r="M19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2">
+        <v>531</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27">
+        <v>3</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="27">
+        <v>2</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2">
+        <v>532</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27">
+        <v>4</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="27">
+        <v>2</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27">
+        <v>100</v>
+      </c>
+      <c r="M21" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>401</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>KUA leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2">
+        <v>402</v>
+      </c>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag A6 (schooljaar 2021 - 2022)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
@@ -3154,7 +3977,7 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -3268,7 +4091,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3634,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I30" s="27"/>
       <c r="J30" s="29" t="s">
@@ -3643,11 +4466,11 @@
       <c r="K30" s="30"/>
       <c r="L30" s="27"/>
       <c r="M30" s="27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N30" s="31"/>
       <c r="O30" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P30" s="32"/>
     </row>
@@ -3660,7 +4483,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I31" s="27"/>
       <c r="J31" s="29" t="s">
@@ -3669,11 +4492,11 @@
       <c r="K31" s="30"/>
       <c r="L31" s="27"/>
       <c r="M31" s="27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N31" s="31"/>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P31" s="32"/>
     </row>
@@ -3686,22 +4509,24 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I32" s="27"/>
       <c r="J32" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="30"/>
+      <c r="K32" s="30" t="s">
+        <v>85</v>
+      </c>
       <c r="L32" s="27">
         <v>100</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N32" s="31"/>
       <c r="O32" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P32" s="32"/>
     </row>
@@ -3714,7 +4539,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
@@ -3723,11 +4548,11 @@
       <c r="K33" s="30"/>
       <c r="L33" s="27"/>
       <c r="M33" s="27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N33" s="31"/>
       <c r="O33" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P33" s="32"/>
     </row>
@@ -3740,22 +4565,24 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I34" s="27"/>
       <c r="J34" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K34" s="30"/>
+      <c r="K34" s="30" t="s">
+        <v>85</v>
+      </c>
       <c r="L34" s="27">
         <v>180</v>
       </c>
       <c r="M34" s="27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N34" s="31"/>
       <c r="O34" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P34" s="32"/>
     </row>
@@ -4152,7 +4979,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5107,7 +5934,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5923,7 +6750,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6547,12 +7374,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige M5 (cohort 2019 - 2020)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -6574,6 +7401,871 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="G4" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
+        <v>KUA leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" customHeight="1" ht="34.5">
+      <c r="A5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" customHeight="1" ht="72">
+      <c r="A6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="32"/>
+    </row>
+    <row r="7" spans="1:17" customHeight="1" ht="72">
+      <c r="A7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="G7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="1:17" customHeight="1" ht="72">
+      <c r="A8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>157</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="G8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="28"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" customHeight="1" ht="72">
+      <c r="A9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4">
+        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
+        <v>2020</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="30"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="1:17" customHeight="1" ht="72">
+      <c r="A10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6">
+        <f>NOW()</f>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
+    </row>
+    <row r="11" spans="1:17" customHeight="1" ht="72">
+      <c r="A11" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="4">
+        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
+        <v>2020</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="G11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="28"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="30"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="str">
+        <f>CONCATENATE(B11," - ",B11+1)</f>
+        <v>2020 - 2021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B7-B11</f>
+        <v>-1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2">
+        <v>391</v>
+      </c>
+      <c r="G13" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag M4 (schooljaar 2019 - 2020)</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+    </row>
+    <row r="14" spans="1:17" customHeight="1" ht="72">
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="7">
+        <f>4+B11-B7</f>
+        <v>5</v>
+      </c>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+    </row>
+    <row r="16" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="G16" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
+        <v>KUA leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" customHeight="1" ht="72">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="30"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="32"/>
+    </row>
+    <row r="19" spans="1:17" customHeight="1" ht="72">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="32"/>
+    </row>
+    <row r="20" spans="1:17" customHeight="1" ht="72">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="32"/>
+    </row>
+    <row r="21" spans="1:17" customHeight="1" ht="72">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="30"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="32"/>
+    </row>
+    <row r="22" spans="1:17" customHeight="1" ht="72">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="G22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="28"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="30"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="32"/>
+    </row>
+    <row r="23" spans="1:17" customHeight="1" ht="72">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="32"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="C25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="2">
+        <v>392</v>
+      </c>
+      <c r="G25" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag M5 (schooljaar 2020 - 2021)</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+    </row>
+    <row r="26" spans="1:17" customHeight="1" ht="72">
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+    </row>
+    <row r="28" spans="1:17" customHeight="1" ht="30.75">
+      <c r="C28" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="G28" s="17" t="str">
+        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
+        <v>KUA leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" customHeight="1" ht="34.5">
+      <c r="D29" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K29" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="M29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O29" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" customHeight="1" ht="72">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="G30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="28"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" s="30"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P30" s="32"/>
+    </row>
+    <row r="31" spans="1:17" customHeight="1" ht="72">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="G31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="28"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P31" s="32"/>
+    </row>
+    <row r="32" spans="1:17" customHeight="1" ht="72">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="G32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="28"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="32"/>
+    </row>
+    <row r="33" spans="1:17" customHeight="1" ht="72">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="G33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="28"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="32"/>
+    </row>
+    <row r="34" spans="1:17" customHeight="1" ht="72">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="G34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P34" s="32"/>
+    </row>
+    <row r="35" spans="1:17" customHeight="1" ht="72">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="G35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="30"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="32"/>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="C37" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="G37" s="33" t="str">
+        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag M6 (schooljaar 2021 - 2020)</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+    </row>
+    <row r="38" spans="1:17" customHeight="1" ht="72">
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="G37:M37"/>
+    <mergeCell ref="G38:M38"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="G2:M2"/>
+    <mergeCell ref="G13:M13"/>
+    <mergeCell ref="G25:M25"/>
+    <mergeCell ref="G26:M26"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J6:J11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ISBLANK($J6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18:J23">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ISBLANK($J18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30:J35">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>ISBLANK($J30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M11">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>ISBLANK($M6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:M23">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>ISBLANK($M18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:M35">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>ISBLANK($M30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>ISBLANK($O6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:O23">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>ISBLANK($O18)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O30:O35">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISBLANK($O30)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="11">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
+    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
+    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
+    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
+    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
+    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
+    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
+    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
+    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
+    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
+    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
+    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
+    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
+    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
+    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:17" customHeight="1" ht="48">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="35" t="str">
+        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
+        <v>verouderd PTA</v>
+      </c>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="O2" s="25"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" customHeight="1" ht="30">
+      <c r="A4" s="9" t="s">
+        <v>27</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="9" t="s">
         <v>28</v>
@@ -6739,7 +8431,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7319,916 +9011,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q38"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O30" sqref="O30:O35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" hidden="true" customWidth="true" style="9"/>
-    <col min="2" max="2" width="19.7109375" hidden="true" customWidth="true" style="7"/>
-    <col min="3" max="3" width="9.140625" hidden="true" customWidth="true" style="9"/>
-    <col min="4" max="4" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="5" max="5" width="9.140625" hidden="true" customWidth="true" style="7"/>
-    <col min="6" max="6" width="9.140625" customWidth="true" style="8"/>
-    <col min="7" max="7" width="9.5703125" customWidth="true" style="7"/>
-    <col min="8" max="8" width="64.7109375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="9.140625" customWidth="true" style="7"/>
-    <col min="10" max="10" width="9.140625" customWidth="true" style="7"/>
-    <col min="11" max="11" width="32.7109375" customWidth="true" style="8"/>
-    <col min="12" max="12" width="9.140625" customWidth="true" style="7"/>
-    <col min="13" max="13" width="9.140625" customWidth="true" style="7"/>
-    <col min="14" max="14" width="9.140625" customWidth="true" style="7"/>
-    <col min="15" max="15" width="9.28515625" customWidth="true" style="7"/>
-    <col min="16" max="16" width="32.7109375" customWidth="true" style="8"/>
-    <col min="17" max="17" width="9.140625" customWidth="true" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="48">
-      <c r="A2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="35" t="str">
-        <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
-      </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="30">
-      <c r="A4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="G4" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>KUA leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" customHeight="1" ht="34.5">
-      <c r="A5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2">
-        <v>25</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P5" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" customHeight="1" ht="72">
-      <c r="A6" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2">
-        <v>515</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="G6" s="27">
-        <v>1</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="I6" s="27">
-        <v>1</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="27">
-        <v>50</v>
-      </c>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="32"/>
-    </row>
-    <row r="7" spans="1:17" customHeight="1" ht="72">
-      <c r="A7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2020</v>
-      </c>
-      <c r="D7" s="2">
-        <v>516</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="G7" s="27">
-        <v>1</v>
-      </c>
-      <c r="H7" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="I7" s="27">
-        <v>1</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="27">
-        <v>50</v>
-      </c>
-      <c r="M7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="32"/>
-    </row>
-    <row r="8" spans="1:17" customHeight="1" ht="72">
-      <c r="A8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2">
-        <v>158</v>
-      </c>
-      <c r="D8" s="2">
-        <v>517</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="G8" s="27">
-        <v>2</v>
-      </c>
-      <c r="H8" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="27">
-        <v>2</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="27">
-        <v>100</v>
-      </c>
-      <c r="M8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P8" s="32"/>
-    </row>
-    <row r="9" spans="1:17" customHeight="1" ht="72">
-      <c r="A9" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4">
-        <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2022</v>
-      </c>
-      <c r="D9" s="2">
-        <v>518</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="G9" s="27">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="27">
-        <v>2</v>
-      </c>
-      <c r="J9" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="27">
-        <v>100</v>
-      </c>
-      <c r="M9" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P9" s="32"/>
-    </row>
-    <row r="10" spans="1:17" customHeight="1" ht="72">
-      <c r="A10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="6">
-        <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2">
-        <v>519</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="G10" s="27">
-        <v>4</v>
-      </c>
-      <c r="H10" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="27">
-        <v>2</v>
-      </c>
-      <c r="J10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="30"/>
-      <c r="L10" s="27">
-        <v>100</v>
-      </c>
-      <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32"/>
-    </row>
-    <row r="11" spans="1:17" customHeight="1" ht="72">
-      <c r="A11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="4">
-        <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
-        <v>2020</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="28"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P11" s="32"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="str">
-        <f>CONCATENATE(B11," - ",B11+1)</f>
-        <v>2020 - 2021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="4">
-        <f>B7-B11</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="2">
-        <v>393</v>
-      </c>
-      <c r="G13" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H4 (schooljaar 2020 - 2021)</v>
-      </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-    </row>
-    <row r="14" spans="1:17" customHeight="1" ht="72">
-      <c r="A14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="7">
-        <f>4+B11-B7</f>
-        <v>4</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="16" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C16" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="G16" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>KUA leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M17" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P17" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P18" s="32"/>
-    </row>
-    <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="32"/>
-    </row>
-    <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P20" s="32"/>
-    </row>
-    <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="32"/>
-    </row>
-    <row r="22" spans="1:17" customHeight="1" ht="72">
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" s="28"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="32"/>
-    </row>
-    <row r="23" spans="1:17" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="C25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="2">
-        <v>394</v>
-      </c>
-      <c r="G25" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H5 (schooljaar 2021 - 2022)</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-    </row>
-    <row r="26" spans="1:17" customHeight="1" ht="72">
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-    </row>
-    <row r="28" spans="1:17" customHeight="1" ht="30.75">
-      <c r="C28" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="G28" s="17" t="str">
-        <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>KUA leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" customHeight="1" ht="34.5">
-      <c r="D29" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K29" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="M29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="N29" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="P29" s="20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="G30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P30" s="32"/>
-    </row>
-    <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="G31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="28"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P31" s="32"/>
-    </row>
-    <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="G32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P32" s="32"/>
-    </row>
-    <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="G33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P33" s="32"/>
-    </row>
-    <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="G34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="28"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P34" s="32"/>
-    </row>
-    <row r="35" spans="1:17" customHeight="1" ht="72">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="G35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P35" s="32"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="C37" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="G37" s="33" t="str">
-        <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H6 (schooljaar 2022 - 2022)</v>
-      </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-    </row>
-    <row r="38" spans="1:17" customHeight="1" ht="72">
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-    </row>
-  </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="K8dvRg92i6t2Teov+MuO3P5bRiICyj5Bf+rKucbGl7PSPcccuCNH279qGmcaWD4+RRRXhp8n/KJ4/sC46gH8qw==" saltValue="/6xjLhdUXCbSwxjIYy2m3w==" spinCount="100000" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="G37:M37"/>
-    <mergeCell ref="G38:M38"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="G13:M13"/>
-    <mergeCell ref="G25:M25"/>
-    <mergeCell ref="G26:M26"/>
-  </mergeCells>
-  <conditionalFormatting sqref="J6:J11">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>ISBLANK($J6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18:J23">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>ISBLANK($J18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J30:J35">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>ISBLANK($J30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M11">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>ISBLANK($M6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:M23">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>ISBLANK($M18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:M35">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>ISBLANK($M30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O11">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>ISBLANK($O6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O18:O23">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>ISBLANK($O18)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O30:O35">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>ISBLANK($O30)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="12">
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
-      <formula1>instellingen!$G$2:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
-      <formula1>instellingen!$H$2:$H$7</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
-      <formula1>instellingen!$I$2:$I$4</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
@@ -8278,7 +9060,7 @@
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
+        <v>Dit is het programma van de huidige H4 (cohort 2020 - 2022)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -8309,7 +9091,7 @@
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v>KUA leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>KUA leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
@@ -8361,22 +9143,30 @@
         <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="2">
+        <v>515</v>
+      </c>
       <c r="E6" s="2"/>
-      <c r="G6" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="27"/>
+      <c r="G6" s="27">
+        <v>1</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="27">
+        <v>1</v>
+      </c>
       <c r="J6" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="30"/>
-      <c r="L6" s="27"/>
+      <c r="L6" s="27">
+        <v>50</v>
+      </c>
       <c r="M6" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="31"/>
       <c r="O6" s="31" t="s">
@@ -8389,22 +9179,30 @@
         <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>2019</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>2020</v>
+      </c>
+      <c r="D7" s="2">
+        <v>516</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="G7" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="27"/>
+      <c r="G7" s="27">
+        <v>1</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="27">
+        <v>1</v>
+      </c>
       <c r="J7" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="30"/>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <v>50</v>
+      </c>
       <c r="M7" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="31"/>
       <c r="O7" s="31" t="s">
@@ -8417,22 +9215,30 @@
         <v>43</v>
       </c>
       <c r="B8" s="2">
-        <v>159</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="D8" s="2">
+        <v>517</v>
+      </c>
       <c r="E8" s="2"/>
-      <c r="G8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="27"/>
+      <c r="G8" s="27">
+        <v>2</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="27">
+        <v>2</v>
+      </c>
       <c r="J8" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="30"/>
-      <c r="L8" s="27"/>
+      <c r="L8" s="27">
+        <v>100</v>
+      </c>
       <c r="M8" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="31"/>
       <c r="O8" s="31" t="s">
@@ -8446,22 +9252,30 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>2021</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>2022</v>
+      </c>
+      <c r="D9" s="2">
+        <v>518</v>
+      </c>
       <c r="E9" s="2"/>
-      <c r="G9" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="27"/>
+      <c r="G9" s="27">
+        <v>3</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="27">
+        <v>2</v>
+      </c>
       <c r="J9" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="30"/>
-      <c r="L9" s="27"/>
+      <c r="L9" s="27">
+        <v>100</v>
+      </c>
       <c r="M9" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="31"/>
       <c r="O9" s="31" t="s">
@@ -8475,22 +9289,30 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44340.444097222</v>
+      </c>
+      <c r="D10" s="2">
+        <v>519</v>
+      </c>
       <c r="E10" s="2"/>
-      <c r="G10" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="27"/>
+      <c r="G10" s="27">
+        <v>4</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10" s="27">
+        <v>2</v>
+      </c>
       <c r="J10" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <v>100</v>
+      </c>
       <c r="M10" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="31"/>
       <c r="O10" s="31" t="s">
@@ -8542,17 +9364,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H4 (schooljaar 2019 - 2020)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H4 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -8567,9 +9389,11 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>5</v>
-      </c>
-      <c r="G14" s="34"/>
+        <v>4</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>81</v>
+      </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
@@ -8584,7 +9408,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v>KUA leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>KUA leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -8626,110 +9450,90 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2">
-        <v>520</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="27">
-        <v>1</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>81</v>
-      </c>
+      <c r="G18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2">
-        <v>521</v>
-      </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="G19" s="27">
-        <v>2</v>
-      </c>
-      <c r="H19" s="28" t="s">
-        <v>82</v>
-      </c>
+      <c r="G19" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2">
-        <v>522</v>
-      </c>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="27">
-        <v>2</v>
-      </c>
-      <c r="H20" s="28" t="s">
-        <v>83</v>
-      </c>
+      <c r="G20" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="28"/>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K20" s="30"/>
-      <c r="L20" s="27">
-        <v>100</v>
-      </c>
+      <c r="L20" s="27"/>
       <c r="M20" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2">
-        <v>523</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="G21" s="27">
-        <v>3</v>
-      </c>
-      <c r="H21" s="28" t="s">
-        <v>84</v>
-      </c>
+      <c r="G21" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="27">
-        <v>180</v>
-      </c>
+      <c r="L21" s="27"/>
       <c r="M21" s="27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
     </row>
@@ -8782,11 +9586,11 @@
         <v>28</v>
       </c>
       <c r="D25" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H5 (schooljaar 2020 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H5 (schooljaar 2021 - 2022)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -8811,7 +9615,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v>KUA leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>KUA leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -8991,7 +9795,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H6 (schooljaar 2021 - 2021)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H6 (schooljaar 2022 - 2022)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9161,12 +9965,12 @@
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
-        <v>0</v>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G2" s="35" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
-        <v>verouderd PTA</v>
+        <v>Dit is het programma van de huidige H5 (cohort 2019 - 2021)</v>
       </c>
       <c r="H2" s="35"/>
       <c r="I2" s="35"/>
@@ -9188,21 +9992,25 @@
       <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"4 (schooljaar ",B7," - ",B7+1,")")</f>
-        <v> leerlaag 4 (schooljaar  - 1)</v>
+        <v>KUA leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
     </row>
     <row r="5" spans="1:17" customHeight="1" ht="34.5">
       <c r="A5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>25</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>30</v>
       </c>
@@ -9244,7 +10052,9 @@
       <c r="A6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="G6" s="27" t="s">
@@ -9270,7 +10080,9 @@
       <c r="A7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2">
+        <v>2019</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="G7" s="27" t="s">
@@ -9296,7 +10108,9 @@
       <c r="A8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2">
+        <v>159</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="G8" s="27" t="s">
@@ -9324,7 +10138,7 @@
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
-        <v>1</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -9353,7 +10167,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44336.445729167</v>
+        <v>44340.444097222</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9420,15 +10234,17 @@
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
-        <v>-2020</v>
+        <v>-1</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="2">
+        <v>395</v>
+      </c>
       <c r="G13" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G4)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 4 (schooljaar  - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H4 (schooljaar 2019 - 2020)</v>
       </c>
       <c r="H13" s="33"/>
       <c r="I13" s="33"/>
@@ -9443,7 +10259,7 @@
       </c>
       <c r="B14" s="7">
         <f>4+B11-B7</f>
-        <v>2024</v>
+        <v>5</v>
       </c>
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
@@ -9460,7 +10276,7 @@
       <c r="D16" s="2"/>
       <c r="G16" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"5 (schooljaar ",B7+1," - ",B7+2,")")</f>
-        <v> leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>KUA leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
     </row>
     <row r="17" spans="1:17" customHeight="1" ht="34.5">
@@ -9502,20 +10318,24 @@
       </c>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>520</v>
+      </c>
       <c r="E18" s="2"/>
-      <c r="G18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="G18" s="27">
+        <v>1</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>82</v>
+      </c>
       <c r="I18" s="27"/>
       <c r="J18" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="27"/>
       <c r="M18" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31" t="s">
@@ -9524,20 +10344,24 @@
       <c r="P18" s="32"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>521</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="G19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="28"/>
+      <c r="G19" s="27">
+        <v>2</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>83</v>
+      </c>
       <c r="I19" s="27"/>
       <c r="J19" s="29" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="27"/>
       <c r="M19" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="31"/>
       <c r="O19" s="31" t="s">
@@ -9546,20 +10370,28 @@
       <c r="P19" s="32"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>522</v>
+      </c>
       <c r="E20" s="2"/>
-      <c r="G20" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="28"/>
+      <c r="G20" s="27">
+        <v>2</v>
+      </c>
+      <c r="H20" s="28" t="s">
+        <v>84</v>
+      </c>
       <c r="I20" s="27"/>
       <c r="J20" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="27">
+        <v>100</v>
+      </c>
       <c r="M20" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="31"/>
       <c r="O20" s="31" t="s">
@@ -9568,20 +10400,28 @@
       <c r="P20" s="32"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>523</v>
+      </c>
       <c r="E21" s="2"/>
-      <c r="G21" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="28"/>
+      <c r="G21" s="27">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>86</v>
+      </c>
       <c r="I21" s="27"/>
       <c r="J21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="27"/>
+        <v>17</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="27">
+        <v>180</v>
+      </c>
       <c r="M21" s="27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="31"/>
       <c r="O21" s="31" t="s">
@@ -9637,10 +10477,12 @@
       <c r="C25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>396</v>
+      </c>
       <c r="G25" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G16)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 5 (schooljaar 1 - 2)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H5 (schooljaar 2020 - 2021)</v>
       </c>
       <c r="H25" s="33"/>
       <c r="I25" s="33"/>
@@ -9665,7 +10507,7 @@
       <c r="D28" s="2"/>
       <c r="G28" s="17" t="str">
         <f>CONCATENATE(B4," leerlaag ",B6,"6 (schooljaar ",B7+2," - ",B9,")")</f>
-        <v> leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>KUA leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
     </row>
     <row r="29" spans="1:17" customHeight="1" ht="34.5">
@@ -9845,7 +10687,7 @@
       <c r="D37" s="2"/>
       <c r="G37" s="33" t="str">
         <f>CONCATENATE("Algemene opmerkingen bij het jaarprogramma van  ",G28)</f>
-        <v>Algemene opmerkingen bij het jaarprogramma van   leerlaag 6 (schooljaar 2 - 1)</v>
+        <v>Algemene opmerkingen bij het jaarprogramma van  KUA leerlaag H6 (schooljaar 2021 - 2021)</v>
       </c>
       <c r="H37" s="33"/>
       <c r="I37" s="33"/>
@@ -9919,6 +10761,44 @@
       <formula>ISBLANK($O30)</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="12">
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G6:G11">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G18:G23">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="G30:G35">
+      <formula1>instellingen!$G$2:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J6:J11">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J18:J23">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="J30:J35">
+      <formula1>instellingen!$H$2:$H$7</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M6:M11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M18:M23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="M30:M35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O6:O11">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O18:O23">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" operator="between" allowBlank="0" showDropDown="0" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="ongeldige waarde" sqref="O30:O35">
+      <formula1>instellingen!$I$2:$I$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>

--- a/public/cohort/fileExcel/xlsxUIT/KUA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KUA PTA en onderwijsprogramma.xlsx
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809293981</v>
+        <v>44341.376666667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2300,7 +2300,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809293981</v>
+        <v>44341.376666667</v>
       </c>
       <c r="D10" s="2">
         <v>519</v>
@@ -3420,7 +3420,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809293981</v>
+        <v>44341.376666667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4522,7 +4522,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809293981</v>
+        <v>44341.376666667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -5602,7 +5602,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809293981</v>
+        <v>44341.376666667</v>
       </c>
       <c r="D10" s="2">
         <v>528</v>
@@ -6724,7 +6724,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -7128,7 +7128,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809293981</v>
+        <v>44341.376666667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7838,7 +7838,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>
@@ -8242,7 +8242,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44340.809293981</v>
+        <v>44341.376666667</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -8946,7 +8946,7 @@
       <c r="Q38" s="31"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="SrX3S+ZNQoctHKAEl4ooEqJ3r4tBtF75kCSPVMl9RCxk7BUvQA71JlF2cy7orB5a5+HvCXP+BUo+YzbIklQFYA==" saltValue="+Q/96ROk+k5baqU9EJnmoQ==" spinCount="100000" sheet="true" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="true" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="G37:M37"/>
     <mergeCell ref="G38:M38"/>

--- a/public/cohort/fileExcel/xlsxUIT/KUA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KUA PTA en onderwijsprogramma.xlsx
@@ -825,16 +825,31 @@
     <t>H</t>
   </si>
   <si>
+    <t>Cultuur van het Moderne - I (1e helft van de 20e eeuw)</t>
+  </si>
+  <si>
     <t>startJaar</t>
+  </si>
+  <si>
+    <t>Cultuur van het Moderne - II (1e helft van de 20e eeuw)</t>
   </si>
   <si>
     <t>cid</t>
   </si>
   <si>
+    <t>Cultuur van het Moderne - III (1e helft van de 20e eeuw)</t>
+  </si>
+  <si>
     <t>eindJaar</t>
   </si>
   <si>
+    <t>Massacultuur - I (2e helft 20e eeuw- heden)</t>
+  </si>
+  <si>
     <t>vandaag</t>
+  </si>
+  <si>
+    <t>Massacultuur - II (2e helft 20e eeuw- heden)</t>
   </si>
   <si>
     <t>huidigStartjaar</t>
@@ -850,21 +865,6 @@
   </si>
   <si>
     <t>mavo?</t>
-  </si>
-  <si>
-    <t>Cultuur van het Moderne - I (1e helft van de 20e eeuw)</t>
-  </si>
-  <si>
-    <t>Cultuur van het Moderne - II (1e helft van de 20e eeuw)</t>
-  </si>
-  <si>
-    <t>Cultuur van het Moderne - III (1e helft van de 20e eeuw)</t>
-  </si>
-  <si>
-    <t>Massacultuur - I (2e helft 20e eeuw- heden)</t>
-  </si>
-  <si>
-    <t>Massacultuur - II (2e helft 20e eeuw- heden)</t>
   </si>
   <si>
     <t>Het gebruik van een woordenboek is niet toegestaan</t>
@@ -2277,21 +2277,29 @@
       <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1059</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -2302,26 +2310,34 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1060</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -2332,26 +2348,34 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>254</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1061</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -2362,27 +2386,35 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2023</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1062</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -2393,27 +2425,35 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382766204</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629965278</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1063</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27" t="s">
@@ -2424,7 +2464,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2455,7 +2495,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2476,7 +2516,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -2506,7 +2546,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -2527,7 +2567,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3364,7 +3404,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I6" s="43">
         <v>1</v>
@@ -3388,7 +3428,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -3402,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I7" s="43">
         <v>1</v>
@@ -3426,7 +3466,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>158</v>
@@ -3440,7 +3480,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I8" s="43">
         <v>2</v>
@@ -3464,7 +3504,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -3479,7 +3519,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I9" s="43">
         <v>2</v>
@@ -3503,11 +3543,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382766204</v>
+        <v>44342.629965278</v>
       </c>
       <c r="D10" s="2">
         <v>519</v>
@@ -3518,7 +3558,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="47" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I10" s="43">
         <v>2</v>
@@ -3542,7 +3582,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -3573,7 +3613,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -3594,7 +3634,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3624,7 +3664,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3647,7 +3687,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -3728,21 +3768,25 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1055</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>75</v>
+      </c>
       <c r="I18" s="23"/>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="23"/>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27" t="s">
@@ -3752,21 +3796,25 @@
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1056</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>76</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K19" s="26"/>
       <c r="L19" s="23"/>
       <c r="M19" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27" t="s">
@@ -3776,21 +3824,29 @@
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1057</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
+      <c r="G20" s="23">
+        <v>2</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>77</v>
+      </c>
       <c r="I20" s="23"/>
       <c r="J20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="27" t="s">
@@ -3800,21 +3856,29 @@
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1058</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
+      <c r="G21" s="23">
+        <v>3</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>79</v>
+      </c>
       <c r="I21" s="23"/>
       <c r="J21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L21" s="23">
+        <v>180</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27" t="s">
@@ -4500,7 +4564,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -4530,7 +4594,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>159</v>
@@ -4560,7 +4624,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4591,11 +4655,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382766204</v>
+        <v>44342.629965278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -4622,7 +4686,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -4653,7 +4717,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -4674,7 +4738,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -4704,7 +4768,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -4725,7 +4789,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5577,21 +5641,29 @@
       <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>1073</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="37"/>
-      <c r="G6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" s="23">
+        <v>1</v>
+      </c>
       <c r="J6" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K6" s="26"/>
-      <c r="L6" s="23"/>
+      <c r="L6" s="23">
+        <v>50</v>
+      </c>
       <c r="M6" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="27"/>
       <c r="O6" s="27" t="s">
@@ -5602,26 +5674,34 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2">
+        <v>1074</v>
+      </c>
       <c r="E7" s="2"/>
       <c r="F7" s="37"/>
-      <c r="G7" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23">
+        <v>1</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="23">
+        <v>1</v>
+      </c>
       <c r="J7" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="L7" s="23">
+        <v>50</v>
+      </c>
       <c r="M7" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27" t="s">
@@ -5632,26 +5712,34 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>255</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2">
+        <v>1075</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="37"/>
-      <c r="G8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="23">
+        <v>2</v>
+      </c>
       <c r="J8" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="23">
+        <v>100</v>
+      </c>
       <c r="M8" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27" t="s">
@@ -5662,27 +5750,35 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
         <v>2024</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2">
+        <v>1076</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="37"/>
-      <c r="G9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23">
+        <v>3</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="23">
+        <v>2</v>
+      </c>
       <c r="J9" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="L9" s="23">
+        <v>100</v>
+      </c>
       <c r="M9" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27" t="s">
@@ -5693,27 +5789,35 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382766204</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>44342.629965278</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1077</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23">
+        <v>4</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="23">
+        <v>2</v>
+      </c>
       <c r="J10" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="L10" s="23">
+        <v>100</v>
+      </c>
       <c r="M10" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27" t="s">
@@ -5724,7 +5828,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5755,7 +5859,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5776,7 +5880,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5806,7 +5910,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -5827,7 +5931,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -6690,7 +6794,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -6728,7 +6832,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
@@ -6742,7 +6846,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="47" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I8" s="43">
         <v>2</v>
@@ -6766,7 +6870,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -6781,7 +6885,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="47" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I9" s="43">
         <v>2</v>
@@ -6805,11 +6909,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382766204</v>
+        <v>44342.629965278</v>
       </c>
       <c r="D10" s="2">
         <v>528</v>
@@ -6844,7 +6948,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -6875,7 +6979,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -6896,7 +7000,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -6926,7 +7030,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -6949,7 +7053,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7030,21 +7134,29 @@
       <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" customHeight="1" ht="72">
-      <c r="D18" s="2"/>
+      <c r="D18" s="2">
+        <v>1069</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="37"/>
-      <c r="G18" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="23">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" s="23">
+        <v>2</v>
+      </c>
       <c r="J18" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="L18" s="23">
+        <v>100</v>
+      </c>
       <c r="M18" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="27"/>
       <c r="O18" s="27" t="s">
@@ -7054,21 +7166,29 @@
       <c r="Q18" s="37"/>
     </row>
     <row r="19" spans="1:17" customHeight="1" ht="72">
-      <c r="D19" s="2"/>
+      <c r="D19" s="2">
+        <v>1070</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="G19" s="23">
+        <v>2</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="23">
+        <v>2</v>
+      </c>
       <c r="J19" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="23">
+        <v>100</v>
+      </c>
       <c r="M19" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="27"/>
       <c r="O19" s="27" t="s">
@@ -7078,21 +7198,29 @@
       <c r="Q19" s="37"/>
     </row>
     <row r="20" spans="1:17" customHeight="1" ht="72">
-      <c r="D20" s="2"/>
+      <c r="D20" s="2">
+        <v>1071</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="37"/>
-      <c r="G20" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="G20" s="23">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="23">
+        <v>2</v>
+      </c>
       <c r="J20" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="L20" s="23">
+        <v>100</v>
+      </c>
       <c r="M20" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="27"/>
       <c r="O20" s="27" t="s">
@@ -7102,21 +7230,29 @@
       <c r="Q20" s="37"/>
     </row>
     <row r="21" spans="1:17" customHeight="1" ht="72">
-      <c r="D21" s="2"/>
+      <c r="D21" s="2">
+        <v>1072</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="37"/>
-      <c r="G21" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="23">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="23">
+        <v>2</v>
+      </c>
       <c r="J21" s="25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="L21" s="23">
+        <v>100</v>
+      </c>
       <c r="M21" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="27"/>
       <c r="O21" s="27" t="s">
@@ -7804,7 +7940,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7834,7 +7970,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>161</v>
@@ -7864,7 +8000,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7895,11 +8031,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382766204</v>
+        <v>44342.629965278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7926,7 +8062,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7957,7 +8093,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7978,7 +8114,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -8008,7 +8144,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -8029,7 +8165,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -8414,21 +8550,25 @@
       <c r="Q29" s="37"/>
     </row>
     <row r="30" spans="1:17" customHeight="1" ht="72">
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>1064</v>
+      </c>
       <c r="E30" s="2"/>
       <c r="F30" s="37"/>
-      <c r="G30" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H30" s="24"/>
+      <c r="G30" s="23">
+        <v>1</v>
+      </c>
+      <c r="H30" s="24" t="s">
+        <v>88</v>
+      </c>
       <c r="I30" s="23"/>
       <c r="J30" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K30" s="26"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N30" s="27"/>
       <c r="O30" s="27" t="s">
@@ -8438,21 +8578,25 @@
       <c r="Q30" s="37"/>
     </row>
     <row r="31" spans="1:17" customHeight="1" ht="72">
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>1065</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="37"/>
-      <c r="G31" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H31" s="24"/>
+      <c r="G31" s="23">
+        <v>2</v>
+      </c>
+      <c r="H31" s="24" t="s">
+        <v>89</v>
+      </c>
       <c r="I31" s="23"/>
       <c r="J31" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K31" s="26"/>
       <c r="L31" s="23"/>
       <c r="M31" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N31" s="27"/>
       <c r="O31" s="27" t="s">
@@ -8462,21 +8606,29 @@
       <c r="Q31" s="37"/>
     </row>
     <row r="32" spans="1:17" customHeight="1" ht="72">
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>1066</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H32" s="24"/>
+      <c r="G32" s="23">
+        <v>2</v>
+      </c>
+      <c r="H32" s="24" t="s">
+        <v>90</v>
+      </c>
       <c r="I32" s="23"/>
       <c r="J32" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="26"/>
-      <c r="L32" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" s="23">
+        <v>100</v>
+      </c>
       <c r="M32" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N32" s="27"/>
       <c r="O32" s="27" t="s">
@@ -8486,21 +8638,25 @@
       <c r="Q32" s="37"/>
     </row>
     <row r="33" spans="1:17" customHeight="1" ht="72">
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>1067</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H33" s="24"/>
+      <c r="G33" s="23">
+        <v>3</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="25" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="K33" s="26"/>
       <c r="L33" s="23"/>
       <c r="M33" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N33" s="27"/>
       <c r="O33" s="27" t="s">
@@ -8510,21 +8666,29 @@
       <c r="Q33" s="37"/>
     </row>
     <row r="34" spans="1:17" customHeight="1" ht="72">
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>1068</v>
+      </c>
       <c r="E34" s="2"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="24"/>
+      <c r="G34" s="23">
+        <v>3</v>
+      </c>
+      <c r="H34" s="24" t="s">
+        <v>92</v>
+      </c>
       <c r="I34" s="23"/>
       <c r="J34" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="23"/>
+        <v>17</v>
+      </c>
+      <c r="K34" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34" s="23">
+        <v>180</v>
+      </c>
       <c r="M34" s="23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N34" s="27"/>
       <c r="O34" s="27" t="s">
@@ -8918,7 +9082,7 @@
     </row>
     <row r="7" spans="1:17" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -8948,7 +9112,7 @@
     </row>
     <row r="8" spans="1:17" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>162</v>
@@ -8978,7 +9142,7 @@
     </row>
     <row r="9" spans="1:17" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9009,11 +9173,11 @@
     </row>
     <row r="10" spans="1:17" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44341.382766204</v>
+        <v>44342.629965278</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9040,7 +9204,7 @@
     </row>
     <row r="11" spans="1:17" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9071,7 +9235,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9092,7 +9256,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9122,7 +9286,7 @@
     </row>
     <row r="14" spans="1:17" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9143,7 +9307,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="9" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>

--- a/public/cohort/fileExcel/xlsxUIT/KUA PTA en onderwijsprogramma.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/KUA PTA en onderwijsprogramma.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -886,6 +886,9 @@
   </si>
   <si>
     <t>Cultuur van het Moderne - I (1e helft van de 20e eeuw)</t>
+  </si>
+  <si>
+    <t>kies...</t>
   </si>
   <si>
     <t>startJaar</t>
@@ -2406,7 +2409,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -2472,7 +2475,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -2485,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -2502,7 +2505,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -2568,7 +2571,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>254</v>
@@ -2581,7 +2584,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -2598,7 +2601,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -2664,7 +2667,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -2678,7 +2681,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -2695,7 +2698,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -2761,11 +2764,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451331019</v>
       </c>
       <c r="D10" s="2">
         <v>1063</v>
@@ -2775,7 +2778,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -2792,7 +2795,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -2858,7 +2861,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -2947,7 +2950,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -2970,7 +2973,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -3009,7 +3012,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -3039,7 +3042,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -4682,7 +4685,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -4748,7 +4751,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -4761,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -4778,7 +4781,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -4844,7 +4847,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>158</v>
@@ -4857,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -4874,7 +4877,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -4940,7 +4943,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -4954,7 +4957,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -4971,7 +4974,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -5037,11 +5040,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451331019</v>
       </c>
       <c r="D10" s="2">
         <v>519</v>
@@ -5051,7 +5054,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -5068,7 +5071,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -5134,7 +5137,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -5223,7 +5226,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -5246,7 +5249,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -5285,14 +5288,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -5317,7 +5320,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -5423,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -5436,7 +5439,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -5509,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -5524,7 +5527,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -5597,7 +5600,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
@@ -5610,7 +5613,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -5683,7 +5686,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
@@ -5698,7 +5701,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -7038,7 +7041,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -7126,7 +7129,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>159</v>
@@ -7214,7 +7217,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -7303,11 +7306,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451342593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7392,7 +7395,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -7481,7 +7484,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -7504,7 +7507,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -7543,7 +7546,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -7573,7 +7576,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -7679,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -7692,7 +7695,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -7765,7 +7768,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -7778,7 +7781,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -7851,14 +7854,14 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -7868,7 +7871,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -7941,14 +7944,14 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L21" s="45">
         <v>180</v>
@@ -7958,7 +7961,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -9213,7 +9216,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2">
         <v>1073</v>
@@ -9223,7 +9226,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -9240,7 +9243,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -9306,7 +9309,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2021</v>
@@ -9319,7 +9322,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -9336,7 +9339,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -9402,7 +9405,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>255</v>
@@ -9432,7 +9435,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -9498,7 +9501,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -9512,7 +9515,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -9529,7 +9532,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -9595,11 +9598,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451342593</v>
       </c>
       <c r="D10" s="2">
         <v>1077</v>
@@ -9609,7 +9612,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -9626,7 +9629,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -9692,7 +9695,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -9781,7 +9784,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -9804,7 +9807,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -9843,7 +9846,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -9873,7 +9876,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -11491,7 +11494,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2">
         <v>524</v>
@@ -11501,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I6" s="45">
         <v>1</v>
@@ -11518,7 +11521,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11584,7 +11587,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2020</v>
@@ -11597,7 +11600,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I7" s="45">
         <v>1</v>
@@ -11614,7 +11617,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11680,7 +11683,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>160</v>
@@ -11710,7 +11713,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11776,7 +11779,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -11790,7 +11793,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -11807,7 +11810,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -11873,11 +11876,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451342593</v>
       </c>
       <c r="D10" s="2">
         <v>528</v>
@@ -11887,7 +11890,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -11904,7 +11907,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -11970,7 +11973,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -12059,7 +12062,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -12082,7 +12085,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -12121,14 +12124,14 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -12153,7 +12156,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -12259,7 +12262,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -12276,7 +12279,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -12349,7 +12352,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -12366,7 +12369,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -12439,7 +12442,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -12456,7 +12459,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -12529,7 +12532,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -12546,7 +12549,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -13803,7 +13806,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -13888,7 +13891,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2019</v>
@@ -13976,7 +13979,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>161</v>
@@ -14064,7 +14067,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -14153,11 +14156,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451342593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -14242,7 +14245,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -14331,7 +14334,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -14354,7 +14357,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -14393,7 +14396,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -14423,7 +14426,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -14529,7 +14532,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -14546,7 +14549,7 @@
       </c>
       <c r="N18" s="46"/>
       <c r="O18" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P18" s="32"/>
       <c r="R18" s="7">
@@ -14619,7 +14622,7 @@
         <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I19" s="45">
         <v>2</v>
@@ -14636,7 +14639,7 @@
       </c>
       <c r="N19" s="46"/>
       <c r="O19" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P19" s="32"/>
       <c r="R19" s="7">
@@ -14709,7 +14712,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -14726,7 +14729,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -14799,7 +14802,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I21" s="45">
         <v>2</v>
@@ -14816,7 +14819,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -15094,7 +15097,7 @@
     </row>
     <row r="26" spans="1:32" customHeight="1" ht="72">
       <c r="G26" s="48" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H26" s="48"/>
       <c r="I26" s="48"/>
@@ -15218,14 +15221,14 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L30" s="45">
         <v>100</v>
@@ -15235,7 +15238,7 @@
       </c>
       <c r="N30" s="46"/>
       <c r="O30" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32"/>
       <c r="R30" s="7">
@@ -15308,7 +15311,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -15321,7 +15324,7 @@
       </c>
       <c r="N31" s="46"/>
       <c r="O31" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32"/>
       <c r="R31" s="7">
@@ -15394,7 +15397,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -15407,7 +15410,7 @@
       </c>
       <c r="N32" s="46"/>
       <c r="O32" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32"/>
       <c r="R32" s="7">
@@ -15480,7 +15483,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -15493,7 +15496,7 @@
       </c>
       <c r="N33" s="46"/>
       <c r="O33" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P33" s="32"/>
       <c r="R33" s="7">
@@ -15566,14 +15569,14 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I34" s="45"/>
       <c r="J34" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L34" s="45">
         <v>180</v>
@@ -15583,7 +15586,7 @@
       </c>
       <c r="N34" s="46"/>
       <c r="O34" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P34" s="32"/>
       <c r="R34" s="7">
@@ -16103,7 +16106,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16188,7 +16191,7 @@
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
       <c r="A7" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2">
         <v>2018</v>
@@ -16276,7 +16279,7 @@
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
       <c r="A8" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2">
         <v>162</v>
@@ -16364,7 +16367,7 @@
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4">
         <f>IF(B6="A",B7+3,IF(B6="H",B7+2,B7+1))</f>
@@ -16453,11 +16456,11 @@
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
       <c r="A10" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44377.541111111</v>
+        <v>44378.451342593</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -16542,7 +16545,7 @@
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
       <c r="A11" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" s="4">
         <f>IF(MONTH(NOW())&gt;7,YEAR(NOW()),YEAR(NOW())-1)</f>
@@ -16631,7 +16634,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" s="4" t="str">
         <f>CONCATENATE(B11," - ",B11+1)</f>
@@ -16654,7 +16657,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="4">
         <f>B7-B11</f>
@@ -16693,7 +16696,7 @@
     </row>
     <row r="14" spans="1:32" customHeight="1" ht="72">
       <c r="A14" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="7">
         <f>B15+B11-B7</f>
@@ -16723,7 +16726,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="7">
         <f>IF(B6="M",3,4)</f>
@@ -17484,7 +17487,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
@@ -17497,7 +17500,7 @@
       </c>
       <c r="N30" s="46"/>
       <c r="O30" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P30" s="32"/>
       <c r="R30" s="7">
@@ -17570,7 +17573,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
@@ -17583,7 +17586,7 @@
       </c>
       <c r="N31" s="46"/>
       <c r="O31" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P31" s="32"/>
       <c r="R31" s="7">
@@ -17656,14 +17659,14 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K32" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L32" s="45">
         <v>100</v>
@@ -17673,7 +17676,7 @@
       </c>
       <c r="N32" s="46"/>
       <c r="O32" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P32" s="32"/>
       <c r="R32" s="7">
@@ -17746,7 +17749,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
@@ -17759,7 +17762,7 @@
       </c>
       <c r="N33" s="46"/>
       <c r="O33" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P33" s="32"/>
       <c r="R33" s="7">
@@ -17832,14 +17835,14 @@
         <v>3</v>
       </c>
       <c r="H34" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I34" s="45"/>
       <c r="J34" s="29" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L34" s="45">
         <v>180</v>
@@ -17849,7 +17852,7 @@
       </c>
       <c r="N34" s="46"/>
       <c r="O34" s="31" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="P34" s="32"/>
       <c r="R34" s="7">
